--- a/files/pivot_test.xlsx
+++ b/files/pivot_test.xlsx
@@ -410,7 +410,7 @@
         <v>44805</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>44806</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>44807</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>44808</v>
       </c>
       <c r="B6">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>44809</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>44810</v>
       </c>
       <c r="B8">
-        <v>283</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>44811</v>
       </c>
       <c r="B9">
-        <v>309</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>44812</v>
       </c>
       <c r="B10">
-        <v>192</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>44813</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>44814</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>44815</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>44816</v>
       </c>
       <c r="B14">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>44817</v>
       </c>
       <c r="B15">
-        <v>119</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>44818</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>44819</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>44820</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>44821</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>44822</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>44823</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>44824</v>
       </c>
       <c r="B22">
-        <v>273</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>44825</v>
       </c>
       <c r="B23">
-        <v>299</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>44826</v>
       </c>
       <c r="B24">
-        <v>173</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>44827</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>44828</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>44829</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>44830</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>44831</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>44832</v>
       </c>
       <c r="B30">
-        <v>81</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>44833</v>
       </c>
       <c r="B31">
-        <v>58</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>44834</v>
       </c>
       <c r="B32">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>44835</v>
       </c>
       <c r="B33">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>44836</v>
       </c>
       <c r="B34">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>44837</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>44838</v>
       </c>
       <c r="B36">
-        <v>286</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>44839</v>
       </c>
       <c r="B37">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>44840</v>
       </c>
       <c r="B38">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>44841</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>44842</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>44843</v>
       </c>
       <c r="B41">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>44844</v>
       </c>
       <c r="B42">
-        <v>95</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>44845</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>44846</v>
       </c>
       <c r="B44">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44847</v>
       </c>
       <c r="B45">
-        <v>61</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>44848</v>
       </c>
       <c r="B46">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>44849</v>
       </c>
       <c r="B47">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44850</v>
       </c>
       <c r="B48">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>44851</v>
       </c>
       <c r="B49">
-        <v>93</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>44852</v>
       </c>
       <c r="B50">
-        <v>286</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>44853</v>
       </c>
       <c r="B51">
-        <v>316</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>44854</v>
       </c>
       <c r="B52">
-        <v>167</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44855</v>
       </c>
       <c r="B53">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44856</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44857</v>
       </c>
       <c r="B55">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44858</v>
       </c>
       <c r="B56">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44859</v>
       </c>
       <c r="B57">
-        <v>127</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44860</v>
       </c>
       <c r="B58">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44861</v>
       </c>
       <c r="B59">
-        <v>54</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44862</v>
       </c>
       <c r="B60">
-        <v>67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44863</v>
       </c>
       <c r="B61">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44864</v>
       </c>
       <c r="B62">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44865</v>
       </c>
       <c r="B63">
-        <v>100</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>44866</v>
       </c>
       <c r="B64">
-        <v>276</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44867</v>
       </c>
       <c r="B65">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44868</v>
       </c>
       <c r="B66">
-        <v>184</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44869</v>
       </c>
       <c r="B67">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44870</v>
       </c>
       <c r="B68">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44871</v>
       </c>
       <c r="B69">
-        <v>109</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44872</v>
       </c>
       <c r="B70">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44873</v>
       </c>
       <c r="B71">
-        <v>124</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44874</v>
       </c>
       <c r="B72">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44875</v>
       </c>
       <c r="B73">
-        <v>68</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44876</v>
       </c>
       <c r="B74">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>44877</v>
       </c>
       <c r="B75">
-        <v>93</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>44878</v>
       </c>
       <c r="B76">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>44879</v>
       </c>
       <c r="B77">
-        <v>102</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>44880</v>
       </c>
       <c r="B78">
-        <v>275</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44881</v>
       </c>
       <c r="B79">
-        <v>306</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44882</v>
       </c>
       <c r="B80">
-        <v>183</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>44883</v>
       </c>
       <c r="B81">
-        <v>94</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>44884</v>
       </c>
       <c r="B82">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44885</v>
       </c>
       <c r="B83">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44886</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44887</v>
       </c>
       <c r="B85">
-        <v>134</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>44888</v>
       </c>
       <c r="B86">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>44889</v>
       </c>
       <c r="B87">
-        <v>61</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>44890</v>
       </c>
       <c r="B88">
-        <v>65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>44891</v>
       </c>
       <c r="B89">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44892</v>
       </c>
       <c r="B90">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44893</v>
       </c>
       <c r="B91">
-        <v>107</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44894</v>
       </c>
       <c r="B92">
-        <v>277</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44895</v>
       </c>
       <c r="B93">
-        <v>281</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/files/pivot_test.xlsx
+++ b/files/pivot_test.xlsx
@@ -410,7 +410,7 @@
         <v>44805</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>44806</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>44807</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>44808</v>
       </c>
       <c r="B6">
-        <v>211</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>44809</v>
       </c>
       <c r="B7">
-        <v>293</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>44810</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>44811</v>
       </c>
       <c r="B9">
-        <v>394</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>44812</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -482,7 +482,7 @@
         <v>44814</v>
       </c>
       <c r="B12">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>44815</v>
       </c>
       <c r="B13">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>44816</v>
       </c>
       <c r="B14">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>44817</v>
       </c>
       <c r="B15">
-        <v>308</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>44818</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>44819</v>
       </c>
       <c r="B17">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>44820</v>
       </c>
       <c r="B18">
-        <v>181</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>44821</v>
       </c>
       <c r="B19">
-        <v>165</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>44822</v>
       </c>
       <c r="B20">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>44823</v>
       </c>
       <c r="B21">
-        <v>325</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>44824</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>44825</v>
       </c>
       <c r="B23">
-        <v>372</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>44826</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>44827</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>44828</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>44829</v>
       </c>
       <c r="B27">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>44830</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>44831</v>
       </c>
       <c r="B29">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>44832</v>
       </c>
       <c r="B30">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>44833</v>
       </c>
       <c r="B31">
-        <v>210</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>44834</v>
       </c>
       <c r="B32">
-        <v>137</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>44835</v>
       </c>
       <c r="B33">
-        <v>193</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>44836</v>
       </c>
       <c r="B34">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>44837</v>
       </c>
       <c r="B35">
-        <v>298</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>44838</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>44839</v>
       </c>
       <c r="B37">
-        <v>321</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>44840</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>44841</v>
       </c>
       <c r="B39">
-        <v>211</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>44842</v>
       </c>
       <c r="B40">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>44843</v>
       </c>
       <c r="B41">
-        <v>139</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>44844</v>
       </c>
       <c r="B42">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>44845</v>
       </c>
       <c r="B43">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>44846</v>
       </c>
       <c r="B44">
-        <v>111</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44847</v>
       </c>
       <c r="B45">
-        <v>228</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>44848</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>44849</v>
       </c>
       <c r="B47">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44850</v>
       </c>
       <c r="B48">
-        <v>230</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>44851</v>
       </c>
       <c r="B49">
-        <v>254</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>44852</v>
       </c>
       <c r="B50">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>44853</v>
       </c>
       <c r="B51">
-        <v>440</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>44854</v>
       </c>
       <c r="B52">
-        <v>73</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44856</v>
       </c>
       <c r="B54">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44857</v>
       </c>
       <c r="B55">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44858</v>
       </c>
       <c r="B56">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44859</v>
       </c>
       <c r="B57">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44860</v>
       </c>
       <c r="B58">
-        <v>117</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44861</v>
       </c>
       <c r="B59">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44862</v>
       </c>
       <c r="B60">
-        <v>172</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44863</v>
       </c>
       <c r="B61">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44864</v>
       </c>
       <c r="B62">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44865</v>
       </c>
       <c r="B63">
-        <v>367</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>44866</v>
       </c>
       <c r="B64">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44867</v>
       </c>
       <c r="B65">
-        <v>322</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44868</v>
       </c>
       <c r="B66">
-        <v>123</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44869</v>
       </c>
       <c r="B67">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44870</v>
       </c>
       <c r="B68">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44871</v>
       </c>
       <c r="B69">
-        <v>188</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44872</v>
       </c>
       <c r="B70">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44873</v>
       </c>
       <c r="B71">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44874</v>
       </c>
       <c r="B72">
-        <v>136</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44875</v>
       </c>
       <c r="B73">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44876</v>
       </c>
       <c r="B74">
-        <v>150</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>44877</v>
       </c>
       <c r="B75">
-        <v>230</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>44878</v>
       </c>
       <c r="B76">
-        <v>176</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>44879</v>
       </c>
       <c r="B77">
-        <v>251</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>44880</v>
       </c>
       <c r="B78">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44881</v>
       </c>
       <c r="B79">
-        <v>363</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44882</v>
       </c>
       <c r="B80">
-        <v>87</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>44883</v>
       </c>
       <c r="B81">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>44884</v>
       </c>
       <c r="B82">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44885</v>
       </c>
       <c r="B83">
-        <v>190</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44886</v>
       </c>
       <c r="B84">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44887</v>
       </c>
       <c r="B85">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>44888</v>
       </c>
       <c r="B86">
-        <v>118</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>44889</v>
       </c>
       <c r="B87">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>44890</v>
       </c>
       <c r="B88">
-        <v>138</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>44891</v>
       </c>
       <c r="B89">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44892</v>
       </c>
       <c r="B90">
-        <v>213</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44893</v>
       </c>
       <c r="B91">
-        <v>289</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44894</v>
       </c>
       <c r="B92">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44895</v>
       </c>
       <c r="B93">
-        <v>393</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
